--- a/biology/Zoologie/Ammocryptocharax/Ammocryptocharax.xlsx
+++ b/biology/Zoologie/Ammocryptocharax/Ammocryptocharax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammocryptocharax est un genre de poissons d'eau douce téléostéens de la famille des Crenuchidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Ammocryptocharax se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Ammocryptocharax se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (16 septembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (16 septembre 2023) :
 Ammocryptocharax elegans Weitzman &amp; Kanazawa, 1976 - espèce type
 Ammocryptocharax lateralis (Eigenmann, 1909)
 Ammocryptocharax minutus Buckup, 1993
@@ -576,10 +592,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Ammocryptocharax Weitzman (d) &amp; Kanazawa (d), 1976[2],[3].
-Ammocryptocharax a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Ammocryptocharax Weitzman (d) &amp; Kanazawa (d), 1976,.
+Ammocryptocharax a pour synonyme :
 Ammochryptocharax (graphie incorrecte)</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Ammocryptocharax, est la combinaison du genre Ammocrypta, des poissons Percidae nord-américains communément appelés « dard de sable », et du genre Charax, le genre type des Characiformes, et fait allusion à la grande ressemblance de ces espèces de Characiformes avec celles du genre Ammocrypta[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Ammocryptocharax, est la combinaison du genre Ammocrypta, des poissons Percidae nord-américains communément appelés « dard de sable », et du genre Charax, le genre type des Characiformes, et fait allusion à la grande ressemblance de ces espèces de Characiformes avec celles du genre Ammocrypta.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Stanley H. Weitzman et Robert H. Kanazawa, « Ammocryptocharax elegans, a new genus and species of riffle-inhabiting characoid fish (Teleostei: Characidae) from South America », Proceedings of the Biological Society of Washington, Washington, vol. 89, no 26,‎ 12 octobre 1976, p. 325-346 (ISSN 0006-324X, e-ISSN 1943-6327, lire en ligne, consulté le 16 septembre 2023).</t>
         </is>
